--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongDoanhThu_ChiTiet.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongDoanhThu_ChiTiet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10 TIMT\Source\repos\banhang24\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangJinDemo\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongDoanhThu_ChiTiet.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongDoanhThu_ChiTiet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangJinDemo\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangjinDemo2\KangJinDemo\banhang24\Template\ExportExcel\Report\BaoCaoChietKhau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,36 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Doanh thu</t>
-  </si>
-  <si>
-    <t>Thực thu</t>
-  </si>
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>BÁO CÁO CHI TIẾT HOA HỒNG NHÂN VIÊN THEO DOANH THU</t>
   </si>
   <si>
-    <t>Hình thức</t>
-  </si>
-  <si>
-    <t>Từ ngày</t>
-  </si>
-  <si>
-    <t>Đến ngày</t>
-  </si>
-  <si>
-    <t>Giá trị tính CK</t>
-  </si>
-  <si>
-    <t>Hoa hồng</t>
-  </si>
-  <si>
-    <t>Loại nhân viên</t>
+    <t>Mã hóa đơn</t>
+  </si>
+  <si>
+    <t>Ngày lập hóa đơn</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Mã hàng hóa</t>
+  </si>
+  <si>
+    <t>Tên hàng hóa</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>% mặc định</t>
+  </si>
+  <si>
+    <t>Giá trị tính</t>
+  </si>
+  <si>
+    <t>Tổng thực tính</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>% hoa hồng</t>
+  </si>
+  <si>
+    <t>Tiền được nhận</t>
   </si>
 </sst>
 </file>
@@ -119,12 +140,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,34 +172,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -189,30 +186,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,39 +204,71 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,346 +551,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="34" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="7" width="21" style="18" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="19" style="18" customWidth="1"/>
+    <col min="7" max="7" width="30" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="17">
-        <f>SUM($E$5:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <f>SUM($F$5:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <f>SUM($G$5:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <f>SUM(H$5:H28)</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongDoanhThu_ChiTiet.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Temp_BaoCaoHoaHongDoanhThu_ChiTiet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>BÁO CÁO CHI TIẾT HOA HỒNG NHÂN VIÊN THEO DOANH THU</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Tên khách hàng</t>
   </si>
   <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
     <t>Mã hàng hóa</t>
   </si>
   <si>
@@ -71,10 +68,19 @@
     <t>Tên nhân viên</t>
   </si>
   <si>
-    <t>% hoa hồng</t>
-  </si>
-  <si>
     <t>Tiền được nhận</t>
+  </si>
+  <si>
+    <t>Tên nhóm hàng</t>
+  </si>
+  <si>
+    <t>Doanh số bán</t>
+  </si>
+  <si>
+    <t>Doanh số hưởng</t>
+  </si>
+  <si>
+    <t>Hệ số</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -207,68 +213,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -551,540 +563,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G12:G13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="18" customWidth="1"/>
-    <col min="5" max="6" width="19" style="18" customWidth="1"/>
-    <col min="7" max="7" width="30" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="16" customWidth="1"/>
+    <col min="5" max="6" width="19" style="16" customWidth="1"/>
+    <col min="7" max="7" width="30" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="21" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="3" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="16.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="29" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="29" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="K4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="26"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="24"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="26"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="24"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="26"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="24"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="26"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="24"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="24"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="26"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="24"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="26"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
